--- a/meetings/Experiments_to_do.xlsx
+++ b/meetings/Experiments_to_do.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="57">
   <si>
     <t xml:space="preserve">BLEU on raw text</t>
   </si>
@@ -127,6 +127,9 @@
     <t xml:space="preserve">Transformer + DC </t>
   </si>
   <si>
+    <t xml:space="preserve">508 + 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">need to train</t>
   </si>
   <si>
@@ -148,52 +151,46 @@
     <t xml:space="preserve">no</t>
   </si>
   <si>
-    <t xml:space="preserve">running (60K)</t>
+    <t xml:space="preserve">480 + 32 * 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512 + 4 * 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNN joined </t>
+  </si>
+  <si>
+    <t xml:space="preserve">running </t>
   </si>
   <si>
     <t xml:space="preserve">n3</t>
   </si>
   <si>
+    <t xml:space="preserve">RNN + fine tuning (EMEA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNN + fine tuning (ECB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNN + fine tuning (EPPS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNN + fine tuning (NEWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512+4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNN + Sparse</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">480 + 32 * 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">running (120K)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">running (150K)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">running</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNN joined </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNN + fine tuning (EMEA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNN + fine tuning (ECB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNN + fine tuning (EPPS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNN + fine tuning (NEWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNN + Sparse</t>
   </si>
 </sst>
 </file>
@@ -301,53 +298,49 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -427,19 +420,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O31" activeCellId="0" sqref="O31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="6:6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="2" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.8367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="2" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,40 +455,43 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="68.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -543,6 +539,7 @@
       <c r="O4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="P4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -551,23 +548,28 @@
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -576,31 +578,36 @@
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="1" t="n">
         <v>35.44</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="1" t="n">
         <v>54.38</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="1" t="n">
         <v>31.12</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="1" t="n">
         <v>21.69</v>
       </c>
-      <c r="G6" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
+      <c r="G6" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="P6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -609,23 +616,28 @@
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
       <c r="O7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="P7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -634,23 +646,28 @@
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
       <c r="O8" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="P8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -659,18 +676,26 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -679,18 +704,26 @@
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -699,18 +732,26 @@
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -719,18 +760,26 @@
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -739,18 +788,26 @@
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J13" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -759,18 +816,26 @@
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -779,18 +844,26 @@
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J15" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -799,41 +872,56 @@
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J16" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J17" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
       <c r="O17" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="P17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -842,117 +930,144 @@
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J18" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J19" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J20" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="1" t="n">
         <v>33.05</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="1" t="n">
         <v>54.72</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="1" t="n">
         <v>31.04</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="1" t="n">
         <v>20.92</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="G22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="H22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>0</v>
@@ -960,711 +1075,860 @@
       <c r="O22" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="P22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="9" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="H23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="H24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="9" t="s">
+      <c r="C25" s="1" t="n">
+        <v>33.85</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>53.63</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="P25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="H26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="9" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="H27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>33.16</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>52.67</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-    </row>
-    <row r="29" customFormat="false" ht="74.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="74.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9" t="n">
-        <v>512</v>
-      </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9" t="s">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K47" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N47" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I48" s="9" t="s">
+      <c r="I48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N48" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I49" s="9" t="s">
+      <c r="I49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N49" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H50" s="9" t="s">
+      <c r="F50" s="6"/>
+      <c r="G50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="H50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>41</v>
@@ -1673,7 +1937,93 @@
         <v>41</v>
       </c>
       <c r="N50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+    </row>
+    <row r="51" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N51" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/meetings/Experiments_to_do.xlsx
+++ b/meetings/Experiments_to_do.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="56">
   <si>
     <t xml:space="preserve">BLEU on raw text</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t xml:space="preserve">RNN joined </t>
-  </si>
-  <si>
-    <t xml:space="preserve">running </t>
   </si>
   <si>
     <t xml:space="preserve">n3</t>
@@ -422,17 +419,17 @@
   </sheetPr>
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="6:6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N30" activeCellId="0" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="2" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="2" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,7 +920,7 @@
       </c>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -953,7 +950,7 @@
       </c>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -981,7 +978,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1009,7 +1006,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
         <v>38</v>
@@ -1029,7 +1026,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1077,7 +1074,7 @@
       </c>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1349,7 +1346,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="74.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="85.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1432,10 +1429,18 @@
       <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="C32" s="6" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>48.02</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>17.22</v>
+      </c>
       <c r="G32" s="1" t="n">
         <v>512</v>
       </c>
@@ -1451,10 +1456,10 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1515,7 +1520,7 @@
     </row>
     <row r="35" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>19</v>
@@ -1541,7 +1546,7 @@
     </row>
     <row r="36" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>19</v>
@@ -1567,7 +1572,7 @@
     </row>
     <row r="37" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>19</v>
@@ -1593,7 +1598,7 @@
     </row>
     <row r="38" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>19</v>
@@ -1619,7 +1624,7 @@
     </row>
     <row r="39" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>25</v>
@@ -1645,7 +1650,7 @@
     </row>
     <row r="40" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>25</v>
@@ -1671,7 +1676,7 @@
     </row>
     <row r="41" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>25</v>
@@ -1697,7 +1702,7 @@
     </row>
     <row r="42" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>25</v>
@@ -1721,19 +1726,27 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>44.19</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="1" t="s">
@@ -1747,15 +1760,15 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>19</v>
@@ -1781,7 +1794,7 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1799,7 +1812,7 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1839,11 +1852,14 @@
     </row>
     <row r="48" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
       <c r="F48" s="6"/>
       <c r="G48" s="1" t="s">
         <v>39</v>
@@ -1874,11 +1890,14 @@
     </row>
     <row r="49" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
       <c r="F49" s="6"/>
       <c r="G49" s="1" t="s">
         <v>39</v>
@@ -1909,11 +1928,14 @@
     </row>
     <row r="50" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C50" s="0"/>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
       <c r="F50" s="6"/>
       <c r="G50" s="1" t="s">
         <v>39</v>
@@ -1944,13 +1966,16 @@
     </row>
     <row r="51" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>43</v>
@@ -1981,7 +2006,7 @@
     </row>
     <row r="52" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>19</v>

--- a/meetings/Experiments_to_do.xlsx
+++ b/meetings/Experiments_to_do.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="57">
   <si>
     <t xml:space="preserve">BLEU on raw text</t>
   </si>
@@ -70,99 +70,105 @@
     <t xml:space="preserve">projection_masking</t>
   </si>
   <si>
+    <t xml:space="preserve">Generic forcing type (0,1,2,3) : 0, not using ; 1 : using on embedding vector ; 2 : using on encoded vector ; 3 : training on the whole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer joined </t>
+  </si>
+  <si>
+    <t xml:space="preserve">en-fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all + crawl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer joined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en-de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer + fine tuning (EMEA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer + fine tuning (ECB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer + fine tuning (EPPS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer + fine tuning (NEWS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer + DC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">508 + 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDCMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">384 + 32 * 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En-fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480 + 32 * 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480 + 8 * 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab-ia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512 + 4 * 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Generic forcing type (0,1,2) : 0, not using ; 1 : using on embedding vector ; 2 : using on encoded vector</t>
   </si>
   <si>
-    <t xml:space="preserve">status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformer joined </t>
-  </si>
-  <si>
-    <t xml:space="preserve">en-fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all + crawl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finished</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformer joined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en-de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformer + fine tuning (EMEA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformer + fine tuning (ECB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformer + fine tuning (EPPS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformer + fine tuning (NEWS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformer + DC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">508 + 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">need to train</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDCMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sparse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">384 + 32 * 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480 + 32 * 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">512 + 4 * 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">RNN joined </t>
   </si>
   <si>
-    <t xml:space="preserve">n3</t>
-  </si>
-  <si>
     <t xml:space="preserve">RNN + fine tuning (EMEA)</t>
   </si>
   <si>
@@ -179,9 +185,6 @@
   </si>
   <si>
     <t xml:space="preserve">512+4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n1</t>
   </si>
   <si>
     <t xml:space="preserve">RNN + Sparse</t>
@@ -235,7 +238,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +255,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
         <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
     <fill>
@@ -295,7 +304,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,6 +349,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -354,7 +371,7 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF3333"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF00CC00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -417,19 +434,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N30" activeCellId="0" sqref="N30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="2" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="12.6377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="13" min="2" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,7 +507,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="68.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -575,16 +592,16 @@
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="10" t="n">
         <v>35.44</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="10" t="n">
         <v>54.38</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="10" t="n">
         <v>31.12</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="10" t="n">
         <v>21.69</v>
       </c>
       <c r="G6" s="1" t="n">
@@ -897,10 +914,18 @@
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="6" t="n">
+        <v>33.88</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>20.77</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>35</v>
       </c>
@@ -916,7 +941,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="P17" s="6"/>
     </row>
@@ -945,14 +970,12 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
@@ -980,7 +1003,7 @@
     </row>
     <row r="20" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>25</v>
@@ -1007,28 +1030,28 @@
       <c r="P20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
       <c r="P21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
@@ -1046,10 +1069,10 @@
         <v>20.92</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>20</v>
@@ -1058,13 +1081,13 @@
         <v>24</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="M22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>0</v>
@@ -1074,22 +1097,30 @@
       </c>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>34.58</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>31.27</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>20</v>
@@ -1098,23 +1129,25 @@
         <v>24</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
@@ -1124,10 +1157,10 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>20</v>
@@ -1136,10 +1169,10 @@
         <v>24</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>41</v>
@@ -1147,33 +1180,25 @@
       <c r="N24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>33.85</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>53.63</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>20</v>
@@ -1182,38 +1207,44 @@
         <v>24</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="C26" s="1" t="n">
+        <v>33.85</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>53.63</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>20.75</v>
+      </c>
       <c r="G26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>20</v>
@@ -1222,16 +1253,16 @@
         <v>24</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="M26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>22</v>
@@ -1240,20 +1271,28 @@
     </row>
     <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="C27" s="12" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="D27" s="12" t="n">
+        <v>55.39</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>30.97</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>21.51</v>
+      </c>
       <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>20</v>
@@ -1262,44 +1301,40 @@
         <v>24</v>
       </c>
       <c r="K27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="M27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-    </row>
-    <row r="28" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>33.16</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>52.67</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>30.66</v>
-      </c>
-      <c r="F28" s="6" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>20</v>
@@ -1308,166 +1343,182 @@
         <v>24</v>
       </c>
       <c r="K28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="M28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="0"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>33.16</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>52.67</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="O30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="85.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="85.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O30" s="1" t="s">
+      <c r="N32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="6" t="n">
-        <v>31.38</v>
-      </c>
-      <c r="D32" s="6" t="n">
-        <v>48.02</v>
-      </c>
-      <c r="E32" s="6" t="n">
-        <v>27.14</v>
-      </c>
-      <c r="F32" s="6" t="n">
-        <v>17.22</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1490,17 +1541,25 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>48.02</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>17.22</v>
+      </c>
       <c r="G34" s="1" t="n">
         <v>512</v>
       </c>
@@ -1515,15 +1574,17 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
+      <c r="O34" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1536,7 +1597,9 @@
       <c r="I35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="6"/>
+      <c r="J35" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
@@ -1544,12 +1607,12 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1562,7 +1625,9 @@
       <c r="I36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="6"/>
+      <c r="J36" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -1624,10 +1689,10 @@
     </row>
     <row r="39" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1650,10 +1715,10 @@
     </row>
     <row r="40" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1726,52 +1791,38 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="6" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="D43" s="6" t="n">
-        <v>44.19</v>
-      </c>
-      <c r="E43" s="6" t="n">
-        <v>25.63</v>
-      </c>
-      <c r="F43" s="6" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="1" t="n">
+        <v>512</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1784,9 +1835,7 @@
       <c r="I44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -1794,35 +1843,65 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+    <row r="45" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>44.19</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
+      <c r="I45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
+      <c r="O45" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+    <row r="46" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="G46" s="1" t="n">
+        <v>512</v>
+      </c>
       <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
+      <c r="I46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -1830,118 +1909,78 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
+    <row r="47" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
       <c r="P47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="0"/>
-      <c r="D48" s="0"/>
-      <c r="E48" s="0"/>
+    <row r="48" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N48" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="0"/>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O49" s="6"/>
+    <row r="49" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
       <c r="P49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="0"/>
-      <c r="D50" s="0"/>
-      <c r="E50" s="0"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>20</v>
@@ -1950,7 +1989,7 @@
         <v>24</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>41</v>
@@ -1959,29 +1998,27 @@
         <v>41</v>
       </c>
       <c r="N50" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="0"/>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
-      <c r="F51" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
       <c r="G51" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>20</v>
@@ -1990,44 +2027,36 @@
         <v>24</v>
       </c>
       <c r="K51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="N51" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>30.85</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>48.56</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F52" s="1" t="n">
-        <v>16.63</v>
-      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
       <c r="G52" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>20</v>
@@ -2036,18 +2065,104 @@
         <v>24</v>
       </c>
       <c r="K52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+    </row>
+    <row r="53" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N52" s="1" t="n">
+      <c r="M53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N53" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/meetings/Experiments_to_do.xlsx
+++ b/meetings/Experiments_to_do.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="54">
   <si>
     <t xml:space="preserve">BLEU on raw text</t>
   </si>
@@ -157,15 +157,9 @@
     <t xml:space="preserve">480 + 8 * 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Lab-ia</t>
-  </si>
-  <si>
     <t xml:space="preserve">512 + 4 * 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Generic forcing type (0,1,2) : 0, not using ; 1 : using on embedding vector ; 2 : using on encoded vector</t>
-  </si>
-  <si>
     <t xml:space="preserve">RNN joined </t>
   </si>
   <si>
@@ -188,9 +182,6 @@
   </si>
   <si>
     <t xml:space="preserve">RNN + Sparse</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -200,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -237,8 +228,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,7 +263,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3333"/>
-        <bgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF3333"/>
       </patternFill>
     </fill>
   </fills>
@@ -304,7 +307,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -357,6 +360,22 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -370,7 +389,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00CC00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -413,7 +432,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF70AD47"/>
       <rgbColor rgb="FF003366"/>
@@ -434,19 +453,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="13" min="2" style="1" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="13" min="2" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="9.71938775510204"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,19 +1164,27 @@
       </c>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="C24" s="1" t="n">
+        <v>33.85</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>53.63</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>20.75</v>
+      </c>
       <c r="G24" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>39</v>
@@ -1172,30 +1199,40 @@
         <v>40</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="C25" s="12" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="D25" s="12" t="n">
+        <v>55.39</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>30.97</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>21.51</v>
+      </c>
       <c r="G25" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>39</v>
@@ -1210,15 +1247,17 @@
         <v>40</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="P25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1228,20 +1267,20 @@
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>33.85</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>53.63</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>20.75</v>
+      <c r="C26" s="12" t="n">
+        <v>35.48</v>
+      </c>
+      <c r="D26" s="13" t="n">
+        <v>55.65</v>
+      </c>
+      <c r="E26" s="14" t="n">
+        <v>31.19</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>21.59</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>39</v>
@@ -1256,40 +1295,40 @@
         <v>40</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="12" t="n">
-        <v>35.98</v>
-      </c>
-      <c r="D27" s="12" t="n">
-        <v>55.39</v>
+      <c r="C27" s="6" t="n">
+        <v>33.16</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>52.67</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>30.97</v>
+        <v>30.66</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>21.51</v>
+        <v>19.69</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>39</v>
@@ -1310,215 +1349,183 @@
         <v>41</v>
       </c>
       <c r="N27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="85.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="15" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="D31" s="15" t="n">
+        <v>48.02</v>
+      </c>
+      <c r="E31" s="15" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="F31" s="15" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N29" s="0"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="6" t="n">
-        <v>33.16</v>
-      </c>
-      <c r="D30" s="6" t="n">
-        <v>52.67</v>
-      </c>
-      <c r="E30" s="6" t="n">
-        <v>30.66</v>
-      </c>
-      <c r="F30" s="6" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="85.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="H32" s="6"/>
       <c r="I32" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1532,7 +1539,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -1541,25 +1548,17 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="6" t="n">
-        <v>31.38</v>
-      </c>
-      <c r="D34" s="6" t="n">
-        <v>48.02</v>
-      </c>
-      <c r="E34" s="6" t="n">
-        <v>27.14</v>
-      </c>
-      <c r="F34" s="6" t="n">
-        <v>17.22</v>
-      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="1" t="n">
         <v>512</v>
       </c>
@@ -1567,24 +1566,20 @@
       <c r="I34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1597,9 +1592,7 @@
       <c r="I35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
@@ -1607,12 +1600,12 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1625,9 +1618,7 @@
       <c r="I36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -1637,7 +1628,7 @@
     </row>
     <row r="37" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>19</v>
@@ -1663,10 +1654,10 @@
     </row>
     <row r="38" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1689,10 +1680,10 @@
     </row>
     <row r="39" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1715,10 +1706,10 @@
     </row>
     <row r="40" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1741,7 +1732,7 @@
     </row>
     <row r="41" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>25</v>
@@ -1765,38 +1756,50 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="1" t="n">
-        <v>512</v>
+        <v>19</v>
+      </c>
+      <c r="C42" s="6" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>44.19</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="6"/>
+      <c r="J42" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
+      <c r="O42" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1809,7 +1812,9 @@
       <c r="I43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="6"/>
+      <c r="J43" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -1817,24 +1822,16 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="44" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="1" t="n">
-        <v>512</v>
-      </c>
+      <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -1843,326 +1840,135 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="6" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="D45" s="6" t="n">
-        <v>44.19</v>
-      </c>
-      <c r="E45" s="6" t="n">
-        <v>25.63</v>
-      </c>
-      <c r="F45" s="6" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>54</v>
-      </c>
+    <row r="45" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P45" s="6"/>
-    </row>
-    <row r="46" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-    </row>
-    <row r="47" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-    </row>
-    <row r="48" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="6"/>
-    </row>
-    <row r="50" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="16" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="D48" s="16" t="n">
+        <v>50.23</v>
+      </c>
+      <c r="E48" s="16" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="F48" s="16" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="1" t="s">
+      <c r="I48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-    </row>
-    <row r="51" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-    </row>
-    <row r="52" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-    </row>
-    <row r="53" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-    </row>
-    <row r="54" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="1" t="n">
-        <v>30.85</v>
-      </c>
-      <c r="D54" s="1" t="n">
-        <v>48.56</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F54" s="1" t="n">
-        <v>16.63</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" s="1" t="s">
+      <c r="N48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/meetings/Experiments_to_do.xlsx
+++ b/meetings/Experiments_to_do.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="72">
   <si>
     <t xml:space="preserve">BLEU on raw text</t>
   </si>
@@ -178,15 +178,15 @@
     <t xml:space="preserve">512 / 1024, 4 layers</t>
   </si>
   <si>
-    <t xml:space="preserve">Adam, learning_rate : 0,0002, Clipping : 5,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab-ia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adam, learning_rate : 0,001, Clipping : 1,0</t>
   </si>
   <si>
+    <t xml:space="preserve">GRU joined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512 / 1024, 1 layers</t>
+  </si>
+  <si>
     <t xml:space="preserve">LSTM + fine tuning (EMEA)</t>
   </si>
   <si>
@@ -223,9 +223,6 @@
     <t xml:space="preserve">WDCMT (conditional GRU)</t>
   </si>
   <si>
-    <t xml:space="preserve">512 / 1024 (1 layers)</t>
-  </si>
-  <si>
     <t xml:space="preserve">LSTM + Sparse</t>
   </si>
   <si>
@@ -235,10 +232,10 @@
     <t xml:space="preserve">(480 + 8 * 4) / 1024 , 1 layer</t>
   </si>
   <si>
-    <t xml:space="preserve">Adam, learning_rate : 0,005, Clipping : 1,0</t>
-  </si>
-  <si>
     <t xml:space="preserve">GRU + Sparse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam, learning_rate : 0,0005, Clipping : 1,0</t>
   </si>
 </sst>
 </file>
@@ -393,16 +390,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -506,24 +503,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="1:50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P53" activeCellId="0" sqref="P53"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="13" min="8" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="8" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,9 +541,8 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5"/>
-      <c r="B2" s="1"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -560,34 +556,30 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
     </row>
-    <row r="3" s="7" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="Q3" s="9"/>
     </row>
-    <row r="4" s="7" customFormat="true" ht="91.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="91.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -643,7 +635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -665,202 +657,268 @@
       <c r="G5" s="1" t="n">
         <v>512</v>
       </c>
+      <c r="H5" s="9"/>
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="Q5" s="9"/>
     </row>
-    <row r="6" s="7" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="1" t="n">
         <v>512</v>
       </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="Q6" s="9"/>
     </row>
-    <row r="7" s="7" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="1" t="n">
         <v>512</v>
       </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="Q7" s="9"/>
     </row>
-    <row r="8" s="7" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="1" t="n">
         <v>512</v>
       </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
-    <row r="9" s="7" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="1" t="n">
         <v>512</v>
       </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="Q9" s="9"/>
     </row>
-    <row r="10" s="7" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="1" t="n">
         <v>512</v>
       </c>
+      <c r="H10" s="9"/>
       <c r="I10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="Q10" s="9"/>
     </row>
-    <row r="11" s="7" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="1" t="n">
         <v>512</v>
       </c>
+      <c r="H11" s="9"/>
       <c r="I11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="Q11" s="9"/>
     </row>
-    <row r="12" s="7" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="1" t="n">
         <v>512</v>
       </c>
+      <c r="H12" s="9"/>
       <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="Q12" s="9"/>
     </row>
-    <row r="13" s="7" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="1" t="n">
         <v>512</v>
       </c>
+      <c r="H13" s="9"/>
       <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="Q13" s="9"/>
     </row>
-    <row r="14" s="7" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="1" t="n">
         <v>512</v>
       </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
-    <row r="15" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -882,19 +940,23 @@
       <c r="G15" s="1" t="n">
         <v>500</v>
       </c>
+      <c r="H15" s="9"/>
       <c r="I15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
       <c r="O15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="Q15" s="9"/>
     </row>
-    <row r="16" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="18.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
         <v>36</v>
@@ -912,10 +974,9 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="Q16" s="9"/>
     </row>
-    <row r="17" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -961,13 +1022,11 @@
       <c r="O17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P17" s="1"/>
       <c r="Q17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="1"/>
     </row>
-    <row r="18" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1013,13 +1072,11 @@
       <c r="O18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="1"/>
       <c r="Q18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="1"/>
     </row>
-    <row r="19" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1070,8 +1127,15 @@
         <v>1</v>
       </c>
       <c r="R19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
     </row>
-    <row r="20" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1123,8 +1187,15 @@
       <c r="R20" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
     </row>
-    <row r="21" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -1176,8 +1247,15 @@
       <c r="R21" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
     </row>
-    <row r="22" s="7" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="16.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1223,6 +1301,7 @@
       <c r="O22" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="P22" s="9"/>
       <c r="Q22" s="1" t="n">
         <v>1</v>
       </c>
@@ -4225,7 +4304,7 @@
         <v>55.65</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -4271,6 +4350,7 @@
       <c r="O23" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="P23" s="9"/>
       <c r="Q23" s="1" t="n">
         <v>1</v>
       </c>
@@ -4479,7 +4559,7 @@
       <c r="AMI23" s="12"/>
       <c r="AMJ23" s="13"/>
     </row>
-    <row r="24" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -4525,6 +4605,7 @@
       <c r="O24" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="P24" s="9"/>
       <c r="Q24" s="1" t="n">
         <v>1</v>
       </c>
@@ -4733,7 +4814,7 @@
       <c r="AMI24" s="12"/>
       <c r="AMJ24" s="13"/>
     </row>
-    <row r="25" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -4779,7 +4860,6 @@
       <c r="O25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="1"/>
       <c r="Q25" s="1" t="n">
         <v>0</v>
       </c>
@@ -4988,7 +5068,7 @@
       <c r="AMI25" s="12"/>
       <c r="AMJ25" s="13"/>
     </row>
-    <row r="26" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -4997,8 +5077,6 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
         <v>43</v>
       </c>
@@ -5026,7 +5104,6 @@
       <c r="O26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P26" s="1"/>
       <c r="Q26" s="1" t="n">
         <v>0</v>
       </c>
@@ -5235,7 +5312,7 @@
       <c r="AMI26" s="12"/>
       <c r="AMJ26" s="13"/>
     </row>
-    <row r="27" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -5281,36 +5358,33 @@
       <c r="O27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P27" s="1"/>
       <c r="Q27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R27" s="1"/>
     </row>
-    <row r="28" s="7" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+    <row r="28" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="1"/>
-      <c r="R28" s="1"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="Q28" s="9"/>
     </row>
-    <row r="29" s="7" customFormat="true" ht="91.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="91.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -5356,10 +5430,9 @@
       <c r="O29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="Q29" s="9"/>
     </row>
-    <row r="30" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -5367,256 +5440,268 @@
         <v>22</v>
       </c>
       <c r="C30" s="10" t="n">
-        <v>31.38</v>
+        <v>32.83</v>
       </c>
       <c r="D30" s="10" t="n">
-        <v>48.02</v>
+        <v>49.28</v>
       </c>
       <c r="E30" s="10" t="n">
-        <v>27.14</v>
+        <v>28.51</v>
       </c>
       <c r="F30" s="10" t="n">
-        <v>17.22</v>
+        <v>18.54</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H30" s="9"/>
       <c r="I30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="Q30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="18.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="5"/>
+      <c r="Q31" s="9"/>
     </row>
-    <row r="31" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="10" t="n">
-        <v>32.53</v>
-      </c>
-      <c r="D31" s="10" t="n">
-        <v>48.81</v>
-      </c>
-      <c r="E31" s="10" t="n">
-        <v>27.67</v>
-      </c>
-      <c r="F31" s="10" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R31" s="1"/>
-    </row>
-    <row r="32" s="7" customFormat="true" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="18.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H32" s="9"/>
       <c r="I32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P32" s="1"/>
-      <c r="R32" s="1"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="Q32" s="9"/>
     </row>
-    <row r="33" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H33" s="9"/>
       <c r="I33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P33" s="1"/>
-      <c r="R33" s="1"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="Q33" s="9"/>
     </row>
-    <row r="34" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H34" s="9"/>
       <c r="I34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P34" s="1"/>
-      <c r="R34" s="1"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="Q34" s="9"/>
     </row>
-    <row r="35" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H35" s="9"/>
       <c r="I35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P35" s="1"/>
-      <c r="R35" s="1"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="Q35" s="9"/>
     </row>
-    <row r="36" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H36" s="9"/>
       <c r="I36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P36" s="1"/>
-      <c r="R36" s="1"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="Q36" s="9"/>
     </row>
-    <row r="37" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H37" s="9"/>
       <c r="I37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P37" s="1"/>
-      <c r="R37" s="1"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="Q37" s="9"/>
     </row>
-    <row r="38" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H38" s="9"/>
       <c r="I38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P38" s="1"/>
-      <c r="R38" s="1"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="Q38" s="9"/>
     </row>
-    <row r="39" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H39" s="9"/>
       <c r="I39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P39" s="1"/>
-      <c r="R39" s="1"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="Q39" s="9"/>
     </row>
-    <row r="40" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H40" s="9"/>
       <c r="I40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P40" s="1"/>
-      <c r="R40" s="1"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="Q40" s="9"/>
     </row>
-    <row r="41" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>59</v>
       </c>
@@ -5624,186 +5709,206 @@
         <v>22</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>26.28</v>
+        <v>30.9</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>44.19</v>
+        <v>47.4</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>25.63</v>
+        <v>27.15</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>14.28</v>
+        <v>16.23</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="H41" s="9"/>
       <c r="I41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
       <c r="O41" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R41" s="1"/>
+      <c r="Q41" s="9"/>
     </row>
-    <row r="42" s="7" customFormat="true" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>27.15</v>
-      </c>
-      <c r="F42" s="1" t="n">
-        <v>16.23</v>
+      <c r="C42" s="5" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>17.12</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R42" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="43" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="5" t="n">
-        <v>30.96</v>
-      </c>
-      <c r="D43" s="5" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E43" s="5" t="n">
-        <v>27.46</v>
-      </c>
-      <c r="F43" s="5" t="n">
-        <v>17.12</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P43" s="1"/>
-      <c r="R43" s="1"/>
+    <row r="45" customFormat="false" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="9"/>
     </row>
-    <row r="44" s="7" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P44" s="1"/>
-      <c r="R44" s="1"/>
+    <row r="46" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="15" t="n">
+        <v>34.28</v>
+      </c>
+      <c r="D46" s="15" t="n">
+        <v>52.02</v>
+      </c>
+      <c r="E46" s="15" t="n">
+        <v>29.34</v>
+      </c>
+      <c r="F46" s="15" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="45" s="7" customFormat="true" ht="26.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>33.55</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>50.58</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>28.86</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="G45" s="1" t="s">
+    <row r="47" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-    </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="15" t="n">
-        <v>34.28</v>
-      </c>
-      <c r="D47" s="15" t="n">
-        <v>52.02</v>
-      </c>
-      <c r="E47" s="15" t="n">
-        <v>29.34</v>
-      </c>
-      <c r="F47" s="15" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="H47" s="1" t="s">
         <v>38</v>
       </c>
@@ -5825,29 +5930,28 @@
       <c r="N47" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="O47" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="P47" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="1" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="H48" s="1" t="s">
         <v>38</v>
       </c>
@@ -5861,7 +5965,7 @@
         <v>39</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>40</v>
@@ -5870,18 +5974,31 @@
         <v>3</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q48" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R48" s="9"/>
     </row>
-    <row r="49" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>51.73</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>18.87</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>69</v>
@@ -5899,7 +6016,7 @@
         <v>39</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>40</v>
@@ -5908,33 +6025,24 @@
         <v>3</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q49" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="R49" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="26.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>51.73</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="F50" s="1" t="n">
-        <v>18.87</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>38</v>
@@ -5964,54 +6072,9 @@
         <v>0</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N51" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
